--- a/doc/equip/Equip.xlsx
+++ b/doc/equip/Equip.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\equip\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B137A04D-074C-4E7B-A2F8-D398D92A0B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10535"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equip" sheetId="1" r:id="rId1"/>
@@ -2281,14 +2287,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2297,345 +2297,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2643,251 +2319,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2896,61 +2330,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3208,29 +2598,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE583"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C520" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E561" sqref="E561"/>
+      <selection pane="bottomRight" activeCell="H308" sqref="H308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
-    <col min="4" max="4" width="23.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3322,7 +2711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3417,7 +2806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3455,7 +2844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3496,7 +2885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3537,7 +2926,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3578,7 +2967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:25">
+    <row r="7" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3619,7 +3008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3657,7 +3046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3695,7 +3084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3733,7 +3122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3771,7 +3160,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3812,7 +3201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:20">
+    <row r="13" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3850,7 +3239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3891,7 +3280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:22">
+    <row r="15" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3917,7 +3306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3943,7 +3332,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3972,7 +3361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4007,7 +3396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4042,7 +3431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4080,7 +3469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4112,7 +3501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4141,7 +3530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4170,7 +3559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4202,7 +3591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4234,7 +3623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4266,7 +3655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4307,7 +3696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4348,7 +3737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4380,7 +3769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4409,7 +3798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4438,7 +3827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4470,7 +3859,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4499,7 +3888,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4531,7 +3920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4560,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4589,7 +3978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4615,7 +4004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4644,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4673,7 +4062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4702,7 +4091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4731,7 +4120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4760,7 +4149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4786,7 +4175,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4809,7 +4198,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4832,7 +4221,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4858,7 +4247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4884,7 +4273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4916,7 +4305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4948,7 +4337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4986,7 +4375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5015,7 +4404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5056,7 +4445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5085,7 +4474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5123,7 +4512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5152,7 +4541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5184,7 +4573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5216,7 +4605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5245,7 +4634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5280,7 +4669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5309,7 +4698,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5350,7 +4739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5385,7 +4774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5420,7 +4809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5464,7 +4853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5511,7 +4900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5552,7 +4941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5593,7 +4982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5634,7 +5023,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5660,7 +5049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5692,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5727,7 +5116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5768,7 +5157,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5800,7 +5189,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5832,7 +5221,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5858,7 +5247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5884,7 +5273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5928,7 +5317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5975,7 +5364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6019,7 +5408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6063,7 +5452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6104,7 +5493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6148,7 +5537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6186,7 +5575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6224,7 +5613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6256,7 +5645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6288,7 +5677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6314,7 +5703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6343,7 +5732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6375,7 +5764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6410,7 +5799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6451,7 +5840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6498,7 +5887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6527,7 +5916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6574,7 +5963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6621,7 +6010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6653,7 +6042,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6694,7 +6083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6741,7 +6130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6782,7 +6171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6826,7 +6215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6873,7 +6262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6896,7 +6285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6931,7 +6320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6972,7 +6361,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7019,7 +6408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7060,7 +6449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7095,7 +6484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7130,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7171,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7209,7 +6598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7247,7 +6636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7288,7 +6677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7329,7 +6718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:31">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7370,7 +6759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7411,7 +6800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:31">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7455,7 +6844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7484,7 +6873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7528,7 +6917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:31">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7566,7 +6955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7607,7 +6996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7636,7 +7025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7665,7 +7054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7712,7 +7101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7756,7 +7145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7794,7 +7183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7829,7 +7218,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7861,7 +7250,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7896,7 +7285,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7940,7 +7329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7978,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8025,7 +7414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8054,7 +7443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8089,7 +7478,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8133,7 +7522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8180,7 +7569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8224,7 +7613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8259,7 +7648,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8303,7 +7692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:31">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8341,7 +7730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8382,7 +7771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8411,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8440,7 +7829,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8481,7 +7870,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="144" spans="1:31">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8528,7 +7917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:31">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -8575,7 +7964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -8601,7 +7990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8627,7 +8016,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="148" spans="1:25">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8671,7 +8060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:31">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8712,7 +8101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8747,7 +8136,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8773,7 +8162,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="1:31">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8811,7 +8200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:31">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8852,7 +8241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:31">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8893,7 +8282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:31">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8940,7 +8329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:31">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8981,7 +8370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:31">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9022,7 +8411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:31">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9063,7 +8452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:31">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9101,7 +8490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:31">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9136,7 +8525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9180,7 +8569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:25">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9221,7 +8610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:25">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9265,7 +8654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:31">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9312,7 +8701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9350,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9388,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:30">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9417,7 +8806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:30">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -9446,7 +8835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:31">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -9487,7 +8876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:31">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -9528,7 +8917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:31">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9575,7 +8964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:31">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9619,7 +9008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9666,7 +9055,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9707,7 +9096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:22">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9736,7 +9125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="1:31">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9771,7 +9160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:31">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9806,7 +9195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:31">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9844,7 +9233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:31">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9882,7 +9271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:22">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9911,7 +9300,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="181" spans="1:31">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9952,7 +9341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:31">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9984,7 +9373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:31">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10025,7 +9414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:25">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10075,7 +9464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:31">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10113,7 +9502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:31">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10148,7 +9537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:31">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10192,7 +9581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:31">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10236,7 +9625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:31">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10274,7 +9663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:31">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10309,7 +9698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:25">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10353,7 +9742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:25">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10385,7 +9774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:25">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -10426,7 +9815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:30">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -10452,7 +9841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="195" spans="1:31">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -10502,7 +9891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:31">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -10549,7 +9938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:31">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -10590,7 +9979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:31">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -10628,7 +10017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:31">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10669,7 +10058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:31">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -10713,7 +10102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:31">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10754,7 +10143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:31">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10792,7 +10181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:31">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10830,7 +10219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10862,7 +10251,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10894,7 +10283,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="206" spans="1:31">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10935,7 +10324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:31">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10976,7 +10365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:31">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11020,7 +10409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:31">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -11064,7 +10453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11090,7 +10479,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="211" spans="1:25">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11131,7 +10520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:25">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11169,7 +10558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:31">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11204,7 +10593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:22">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -11236,7 +10625,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="215" spans="1:22">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -11271,7 +10660,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="216" spans="1:26">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -11309,7 +10698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:26">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -11350,7 +10739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:25">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -11385,7 +10774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="219" spans="1:31">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -11420,7 +10809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:31">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -11455,7 +10844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:25">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -11502,7 +10891,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="222" spans="1:31">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -11534,7 +10923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:31">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -11572,7 +10961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:31">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -11616,7 +11005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:31">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -11660,7 +11049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:31">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -11704,7 +11093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:26">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -11730,7 +11119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="1:26">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -11756,7 +11145,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="229" spans="1:31">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -11791,7 +11180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:26">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -11838,7 +11227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:29">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -11864,7 +11253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="232" spans="1:20">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -11911,7 +11300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:25">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -11958,7 +11347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:31">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12005,7 +11394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:25">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12049,7 +11438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:25">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12096,7 +11485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:25">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -12140,7 +11529,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="238" spans="1:31">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -12187,7 +11576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:31">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -12228,7 +11617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:31">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -12272,7 +11661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:26">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -12307,7 +11696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -12333,7 +11722,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="243" spans="1:31">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -12374,7 +11763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:31">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -12415,7 +11804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:31">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -12459,7 +11848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:25">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -12503,7 +11892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:25">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -12547,7 +11936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:25">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -12591,7 +11980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:31">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -12629,7 +12018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:31">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -12676,7 +12065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:31">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -12717,7 +12106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:31">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -12755,7 +12144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:31">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -12799,7 +12188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:31">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -12840,7 +12229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:31">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -12884,7 +12273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:31">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -12928,7 +12317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:31">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -12969,7 +12358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:31">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -13016,7 +12405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:19">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -13054,7 +12443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:19">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -13095,7 +12484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:26">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -13133,7 +12522,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="262" spans="1:26">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -13168,7 +12557,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="263" spans="1:26">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -13203,7 +12592,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="264" spans="1:31">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -13244,7 +12633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:31">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -13285,7 +12674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:31">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -13326,7 +12715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:25">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -13373,7 +12762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:25">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -13420,7 +12809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -13452,7 +12841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:31">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -13487,7 +12876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:31">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -13528,7 +12917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:31">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -13566,7 +12955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -13601,7 +12990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:31">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -13636,7 +13025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:25">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -13671,7 +13060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:25">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -13721,7 +13110,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="277" spans="1:25">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -13765,7 +13154,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="278" spans="1:31">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -13815,7 +13204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:25">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -13853,7 +13242,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="280" spans="1:25">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -13897,7 +13286,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="281" spans="1:26">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -13947,7 +13336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:25">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -13994,7 +13383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="1:25">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -14038,7 +13427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:22">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -14073,7 +13462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="285" spans="1:25">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -14120,7 +13509,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="286" spans="1:22">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -14155,7 +13544,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="287" spans="1:22">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -14190,7 +13579,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="288" spans="1:26">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -14216,7 +13605,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="289" spans="1:26">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -14248,7 +13637,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="290" spans="1:25">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -14295,7 +13684,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="291" spans="1:25">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -14339,7 +13728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:31">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14383,7 +13772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:31">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14433,7 +13822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:25">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14477,7 +13866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:25">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -14524,7 +13913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:25">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -14574,7 +13963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:25">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14624,7 +14013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:25">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -14665,7 +14054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:20">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -14703,7 +14092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:25">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -14744,7 +14133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:25">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14791,7 +14180,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="302" spans="1:25">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -14820,7 +14209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:31">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -14864,7 +14253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:25">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -14911,7 +14300,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="305" spans="1:31">
+    <row r="305" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14949,7 +14338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:31">
+    <row r="306" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -14993,7 +14382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:31">
+    <row r="307" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -15010,10 +14399,10 @@
         <v>1945</v>
       </c>
       <c r="F307">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H307">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I307">
         <v>4</v>
@@ -15043,7 +14432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:25">
+    <row r="308" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -15090,7 +14479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:25">
+    <row r="309" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -15140,7 +14529,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="310" spans="1:22">
+    <row r="310" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -15172,7 +14561,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="311" spans="1:25">
+    <row r="311" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -15219,7 +14608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:31">
+    <row r="312" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15254,7 +14643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:31">
+    <row r="313" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15295,7 +14684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:25">
+    <row r="314" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15339,7 +14728,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="315" spans="1:22">
+    <row r="315" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15380,7 +14769,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="316" spans="1:26">
+    <row r="316" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -15427,7 +14816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:31">
+    <row r="317" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -15471,7 +14860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:25">
+    <row r="318" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -15503,7 +14892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:25">
+    <row r="319" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -15550,7 +14939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="320" spans="1:31">
+    <row r="320" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -15597,7 +14986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:31">
+    <row r="321" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15638,7 +15027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:31">
+    <row r="322" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>322</v>
       </c>
@@ -15688,7 +15077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:31">
+    <row r="323" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>323</v>
       </c>
@@ -15738,7 +15127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:31">
+    <row r="324" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>324</v>
       </c>
@@ -15773,7 +15162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:31">
+    <row r="325" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>325</v>
       </c>
@@ -15811,7 +15200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:31">
+    <row r="326" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>326</v>
       </c>
@@ -15852,7 +15241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:31">
+    <row r="327" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>327</v>
       </c>
@@ -15890,7 +15279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:25">
+    <row r="328" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>328</v>
       </c>
@@ -15937,7 +15326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="329" spans="1:25">
+    <row r="329" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>329</v>
       </c>
@@ -15984,7 +15373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:20">
+    <row r="330" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>330</v>
       </c>
@@ -16025,7 +15414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:25">
+    <row r="331" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>331</v>
       </c>
@@ -16069,7 +15458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:25">
+    <row r="332" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>332</v>
       </c>
@@ -16113,7 +15502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="333" spans="1:31">
+    <row r="333" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>333</v>
       </c>
@@ -16151,7 +15540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:31">
+    <row r="334" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>334</v>
       </c>
@@ -16192,7 +15581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:31">
+    <row r="335" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>336</v>
       </c>
@@ -16230,7 +15619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:31">
+    <row r="336" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>338</v>
       </c>
@@ -16277,7 +15666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:31">
+    <row r="337" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>339</v>
       </c>
@@ -16324,7 +15713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:25">
+    <row r="338" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>340</v>
       </c>
@@ -16371,7 +15760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:25">
+    <row r="339" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>341</v>
       </c>
@@ -16418,7 +15807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:31">
+    <row r="340" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>342</v>
       </c>
@@ -16462,7 +15851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:31">
+    <row r="341" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>343</v>
       </c>
@@ -16509,7 +15898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:31">
+    <row r="342" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>344</v>
       </c>
@@ -16550,7 +15939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:31">
+    <row r="343" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>345</v>
       </c>
@@ -16591,7 +15980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:26">
+    <row r="344" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>346</v>
       </c>
@@ -16623,7 +16012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="1:26">
+    <row r="345" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>347</v>
       </c>
@@ -16655,7 +16044,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>348</v>
       </c>
@@ -16684,7 +16073,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>349</v>
       </c>
@@ -16713,7 +16102,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="348" spans="1:31">
+    <row r="348" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>350</v>
       </c>
@@ -16748,7 +16137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:31">
+    <row r="349" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>351</v>
       </c>
@@ -16780,7 +16169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:31">
+    <row r="350" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>352</v>
       </c>
@@ -16812,7 +16201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:31">
+    <row r="351" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>353</v>
       </c>
@@ -16853,7 +16242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:31">
+    <row r="352" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>354</v>
       </c>
@@ -16894,7 +16283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:29">
+    <row r="353" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>355</v>
       </c>
@@ -16929,7 +16318,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="354" spans="1:25">
+    <row r="354" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>356</v>
       </c>
@@ -16973,7 +16362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:25">
+    <row r="355" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>357</v>
       </c>
@@ -17017,7 +16406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:25">
+    <row r="356" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>358</v>
       </c>
@@ -17064,7 +16453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="357" spans="1:25">
+    <row r="357" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>359</v>
       </c>
@@ -17114,7 +16503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="358" spans="1:25">
+    <row r="358" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>360</v>
       </c>
@@ -17161,7 +16550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="359" spans="1:25">
+    <row r="359" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>361</v>
       </c>
@@ -17208,7 +16597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="360" spans="1:25">
+    <row r="360" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>362</v>
       </c>
@@ -17255,7 +16644,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="361" spans="1:25">
+    <row r="361" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>363</v>
       </c>
@@ -17305,7 +16694,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="362" spans="1:22">
+    <row r="362" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>364</v>
       </c>
@@ -17337,7 +16726,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>365</v>
       </c>
@@ -17366,7 +16755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:26">
+    <row r="364" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>366</v>
       </c>
@@ -17416,7 +16805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:31">
+    <row r="365" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>367</v>
       </c>
@@ -17463,7 +16852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:31">
+    <row r="366" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>368</v>
       </c>
@@ -17507,7 +16896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:31">
+    <row r="367" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>369</v>
       </c>
@@ -17554,7 +16943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:31">
+    <row r="368" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>370</v>
       </c>
@@ -17592,7 +16981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:31">
+    <row r="369" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>371</v>
       </c>
@@ -17636,7 +17025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:31">
+    <row r="370" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>372</v>
       </c>
@@ -17674,7 +17063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:31">
+    <row r="371" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>373</v>
       </c>
@@ -17718,7 +17107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:31">
+    <row r="372" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>374</v>
       </c>
@@ -17765,7 +17154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:31">
+    <row r="373" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>375</v>
       </c>
@@ -17800,7 +17189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:22">
+    <row r="374" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>376</v>
       </c>
@@ -17838,7 +17227,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="375" spans="1:26">
+    <row r="375" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>377</v>
       </c>
@@ -17876,7 +17265,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="376" spans="1:26">
+    <row r="376" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>378</v>
       </c>
@@ -17905,7 +17294,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="377" spans="1:26">
+    <row r="377" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>379</v>
       </c>
@@ -17952,7 +17341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:26">
+    <row r="378" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>380</v>
       </c>
@@ -17999,7 +17388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:25">
+    <row r="379" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>381</v>
       </c>
@@ -18040,7 +17429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:26">
+    <row r="380" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>382</v>
       </c>
@@ -18090,7 +17479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:22">
+    <row r="381" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>383</v>
       </c>
@@ -18122,7 +17511,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="382" spans="1:22">
+    <row r="382" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>384</v>
       </c>
@@ -18163,7 +17552,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="383" spans="1:25">
+    <row r="383" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>385</v>
       </c>
@@ -18204,7 +17593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="1:25">
+    <row r="384" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>386</v>
       </c>
@@ -18251,7 +17640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:25">
+    <row r="385" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>387</v>
       </c>
@@ -18298,7 +17687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="386" spans="1:31">
+    <row r="386" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>388</v>
       </c>
@@ -18345,7 +17734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:31">
+    <row r="387" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>389</v>
       </c>
@@ -18395,7 +17784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:25">
+    <row r="388" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>390</v>
       </c>
@@ -18445,7 +17834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="389" spans="1:31">
+    <row r="389" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>391</v>
       </c>
@@ -18486,7 +17875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:31">
+    <row r="390" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>392</v>
       </c>
@@ -18536,7 +17925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:25">
+    <row r="391" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>393</v>
       </c>
@@ -18580,7 +17969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" spans="1:25">
+    <row r="392" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>394</v>
       </c>
@@ -18624,7 +18013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" spans="1:31">
+    <row r="393" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>395</v>
       </c>
@@ -18662,7 +18051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:31">
+    <row r="394" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>396</v>
       </c>
@@ -18697,7 +18086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:25">
+    <row r="395" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>397</v>
       </c>
@@ -18741,7 +18130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="396" spans="1:25">
+    <row r="396" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>398</v>
       </c>
@@ -18785,7 +18174,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="397" spans="1:25">
+    <row r="397" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>399</v>
       </c>
@@ -18832,7 +18221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:22">
+    <row r="398" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>400</v>
       </c>
@@ -18867,7 +18256,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="399" spans="1:31">
+    <row r="399" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>401</v>
       </c>
@@ -18908,7 +18297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>402</v>
       </c>
@@ -18934,7 +18323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:31">
+    <row r="401" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>403</v>
       </c>
@@ -18978,7 +18367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:31">
+    <row r="402" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>404</v>
       </c>
@@ -19025,7 +18414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:31">
+    <row r="403" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>405</v>
       </c>
@@ -19066,7 +18455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:31">
+    <row r="404" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>406</v>
       </c>
@@ -19107,7 +18496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:25">
+    <row r="405" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>407</v>
       </c>
@@ -19154,7 +18543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="406" spans="1:30">
+    <row r="406" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>408</v>
       </c>
@@ -19195,7 +18584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="407" spans="1:30">
+    <row r="407" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>409</v>
       </c>
@@ -19233,7 +18622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="408" spans="1:25">
+    <row r="408" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>410</v>
       </c>
@@ -19268,7 +18657,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="409" spans="1:25">
+    <row r="409" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>411</v>
       </c>
@@ -19303,7 +18692,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="410" spans="1:25">
+    <row r="410" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>412</v>
       </c>
@@ -19347,7 +18736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:22">
+    <row r="411" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>413</v>
       </c>
@@ -19379,7 +18768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="412" spans="1:31">
+    <row r="412" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>414</v>
       </c>
@@ -19420,7 +18809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:31">
+    <row r="413" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>415</v>
       </c>
@@ -19458,7 +18847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:31">
+    <row r="414" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>416</v>
       </c>
@@ -19499,7 +18888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:31">
+    <row r="415" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>417</v>
       </c>
@@ -19540,7 +18929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:31">
+    <row r="416" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>418</v>
       </c>
@@ -19581,7 +18970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:31">
+    <row r="417" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>419</v>
       </c>
@@ -19628,7 +19017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:31">
+    <row r="418" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>420</v>
       </c>
@@ -19678,7 +19067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:31">
+    <row r="419" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>421</v>
       </c>
@@ -19728,7 +19117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:31">
+    <row r="420" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>422</v>
       </c>
@@ -19769,7 +19158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:31">
+    <row r="421" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>423</v>
       </c>
@@ -19813,7 +19202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:31">
+    <row r="422" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>424</v>
       </c>
@@ -19851,7 +19240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:31">
+    <row r="423" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>425</v>
       </c>
@@ -19889,7 +19278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:20">
+    <row r="424" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>426</v>
       </c>
@@ -19936,7 +19325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:20">
+    <row r="425" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>427</v>
       </c>
@@ -19980,7 +19369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:20">
+    <row r="426" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>428</v>
       </c>
@@ -20024,7 +19413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:20">
+    <row r="427" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>429</v>
       </c>
@@ -20068,7 +19457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:25">
+    <row r="428" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>430</v>
       </c>
@@ -20115,7 +19504,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="429" spans="1:31">
+    <row r="429" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>431</v>
       </c>
@@ -20159,7 +19548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:31">
+    <row r="430" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>432</v>
       </c>
@@ -20200,7 +19589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:31">
+    <row r="431" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>433</v>
       </c>
@@ -20247,7 +19636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:31">
+    <row r="432" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>434</v>
       </c>
@@ -20285,7 +19674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:31">
+    <row r="433" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>435</v>
       </c>
@@ -20329,7 +19718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:29">
+    <row r="434" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>436</v>
       </c>
@@ -20364,7 +19753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="435" spans="1:31">
+    <row r="435" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>437</v>
       </c>
@@ -20399,7 +19788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:26">
+    <row r="436" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>438</v>
       </c>
@@ -20437,7 +19826,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="437" spans="1:26">
+    <row r="437" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>439</v>
       </c>
@@ -20472,7 +19861,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="438" spans="1:22">
+    <row r="438" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>440</v>
       </c>
@@ -20501,7 +19890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="439" spans="1:22">
+    <row r="439" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>441</v>
       </c>
@@ -20533,7 +19922,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="440" spans="1:22">
+    <row r="440" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>442</v>
       </c>
@@ -20565,7 +19954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="441" spans="1:22">
+    <row r="441" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>443</v>
       </c>
@@ -20597,7 +19986,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="442" spans="1:31">
+    <row r="442" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>444</v>
       </c>
@@ -20644,7 +20033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:31">
+    <row r="443" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>445</v>
       </c>
@@ -20682,7 +20071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:31">
+    <row r="444" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>446</v>
       </c>
@@ -20720,7 +20109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:31">
+    <row r="445" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>447</v>
       </c>
@@ -20761,7 +20150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:29">
+    <row r="446" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>449</v>
       </c>
@@ -20790,7 +20179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="447" spans="1:25">
+    <row r="447" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>450</v>
       </c>
@@ -20825,7 +20214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:31">
+    <row r="448" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>451</v>
       </c>
@@ -20863,7 +20252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:31">
+    <row r="449" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>452</v>
       </c>
@@ -20901,7 +20290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:31">
+    <row r="450" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>453</v>
       </c>
@@ -20948,7 +20337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:31">
+    <row r="451" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>454</v>
       </c>
@@ -20998,7 +20387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:25">
+    <row r="452" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>455</v>
       </c>
@@ -21039,7 +20428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:26">
+    <row r="453" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>456</v>
       </c>
@@ -21086,7 +20475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:22">
+    <row r="454" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>457</v>
       </c>
@@ -21121,7 +20510,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="455" spans="1:22">
+    <row r="455" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>458</v>
       </c>
@@ -21162,7 +20551,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="456" spans="1:31">
+    <row r="456" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>459</v>
       </c>
@@ -21206,7 +20595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:25">
+    <row r="457" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>460</v>
       </c>
@@ -21250,7 +20639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="458" spans="1:22">
+    <row r="458" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>461</v>
       </c>
@@ -21288,7 +20677,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="459" spans="1:25">
+    <row r="459" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>463</v>
       </c>
@@ -21335,7 +20724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:25">
+    <row r="460" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>464</v>
       </c>
@@ -21382,7 +20771,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="461" spans="1:25">
+    <row r="461" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>465</v>
       </c>
@@ -21429,7 +20818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="462" spans="1:31">
+    <row r="462" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>466</v>
       </c>
@@ -21476,7 +20865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:25">
+    <row r="463" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>467</v>
       </c>
@@ -21520,7 +20909,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="464" spans="1:25">
+    <row r="464" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>468</v>
       </c>
@@ -21564,7 +20953,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="465" spans="1:31">
+    <row r="465" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>469</v>
       </c>
@@ -21605,7 +20994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:26">
+    <row r="466" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>470</v>
       </c>
@@ -21655,7 +21044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="467" spans="1:31">
+    <row r="467" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>471</v>
       </c>
@@ -21693,7 +21082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:26">
+    <row r="468" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>472</v>
       </c>
@@ -21728,7 +21117,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="469" spans="1:31">
+    <row r="469" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>473</v>
       </c>
@@ -21772,7 +21161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:31">
+    <row r="470" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>474</v>
       </c>
@@ -21819,7 +21208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:31">
+    <row r="471" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>475</v>
       </c>
@@ -21866,7 +21255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:31">
+    <row r="472" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>476</v>
       </c>
@@ -21913,7 +21302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="473" spans="1:25">
+    <row r="473" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>477</v>
       </c>
@@ -21957,7 +21346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:26">
+    <row r="474" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>478</v>
       </c>
@@ -22013,7 +21402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:31">
+    <row r="475" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>479</v>
       </c>
@@ -22060,7 +21449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:31">
+    <row r="476" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>480</v>
       </c>
@@ -22095,7 +21484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="477" spans="1:31">
+    <row r="477" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>481</v>
       </c>
@@ -22139,7 +21528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:29">
+    <row r="478" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>482</v>
       </c>
@@ -22174,7 +21563,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="479" spans="1:25">
+    <row r="479" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>483</v>
       </c>
@@ -22209,7 +21598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:31">
+    <row r="480" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>484</v>
       </c>
@@ -22256,7 +21645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:25">
+    <row r="481" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>485</v>
       </c>
@@ -22291,7 +21680,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="482" spans="1:31">
+    <row r="482" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>486</v>
       </c>
@@ -22332,7 +21721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:31">
+    <row r="483" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>487</v>
       </c>
@@ -22379,7 +21768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:26">
+    <row r="484" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>488</v>
       </c>
@@ -22414,7 +21803,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="485" spans="1:31">
+    <row r="485" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>489</v>
       </c>
@@ -22455,7 +21844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:31">
+    <row r="486" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>490</v>
       </c>
@@ -22499,7 +21888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:31">
+    <row r="487" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>491</v>
       </c>
@@ -22546,7 +21935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="488" spans="1:31">
+    <row r="488" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>492</v>
       </c>
@@ -22587,7 +21976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="489" spans="1:31">
+    <row r="489" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>493</v>
       </c>
@@ -22634,7 +22023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="1:29">
+    <row r="490" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>494</v>
       </c>
@@ -22663,7 +22052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="491" spans="1:29">
+    <row r="491" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>495</v>
       </c>
@@ -22695,7 +22084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="492" spans="1:29">
+    <row r="492" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>496</v>
       </c>
@@ -22721,7 +22110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="493" spans="1:29">
+    <row r="493" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>497</v>
       </c>
@@ -22747,7 +22136,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="494" spans="1:29">
+    <row r="494" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>498</v>
       </c>
@@ -22773,7 +22162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="495" spans="1:29">
+    <row r="495" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>499</v>
       </c>
@@ -22802,7 +22191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="496" spans="1:18">
+    <row r="496" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>500</v>
       </c>
@@ -22831,7 +22220,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="497" spans="1:18">
+    <row r="497" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>501</v>
       </c>
@@ -22860,7 +22249,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="498" spans="1:25">
+    <row r="498" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>502</v>
       </c>
@@ -22910,7 +22299,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="499" spans="1:25">
+    <row r="499" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>503</v>
       </c>
@@ -22957,7 +22346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="500" spans="1:31">
+    <row r="500" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>504</v>
       </c>
@@ -23004,7 +22393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="501" spans="1:25">
+    <row r="501" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>505</v>
       </c>
@@ -23033,7 +22422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:26">
+    <row r="502" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>506</v>
       </c>
@@ -23074,7 +22463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:20">
+    <row r="503" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>507</v>
       </c>
@@ -23118,7 +22507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="504" spans="1:20">
+    <row r="504" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>508</v>
       </c>
@@ -23156,7 +22545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="505" spans="1:26">
+    <row r="505" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>509</v>
       </c>
@@ -23206,7 +22595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:31">
+    <row r="506" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>510</v>
       </c>
@@ -23241,7 +22630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:22">
+    <row r="507" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>511</v>
       </c>
@@ -23270,7 +22659,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="508" spans="1:22">
+    <row r="508" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>512</v>
       </c>
@@ -23302,7 +22691,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="509" spans="1:16">
+    <row r="509" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>513</v>
       </c>
@@ -23328,7 +22717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:29">
+    <row r="510" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>514</v>
       </c>
@@ -23363,7 +22752,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="511" spans="1:31">
+    <row r="511" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>515</v>
       </c>
@@ -23398,7 +22787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:31">
+    <row r="512" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>516</v>
       </c>
@@ -23439,7 +22828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:26">
+    <row r="513" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>517</v>
       </c>
@@ -23477,7 +22866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:25">
+    <row r="514" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>518</v>
       </c>
@@ -23521,7 +22910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" spans="1:22">
+    <row r="515" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>519</v>
       </c>
@@ -23559,7 +22948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="516" spans="1:25">
+    <row r="516" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>520</v>
       </c>
@@ -23603,7 +22992,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="517" spans="1:31">
+    <row r="517" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>521</v>
       </c>
@@ -23647,7 +23036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:31">
+    <row r="518" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>522</v>
       </c>
@@ -23688,7 +23077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:31">
+    <row r="519" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>523</v>
       </c>
@@ -23732,7 +23121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:26">
+    <row r="520" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>524</v>
       </c>
@@ -23782,7 +23171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:30">
+    <row r="521" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>525</v>
       </c>
@@ -23817,7 +23206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="522" spans="1:30">
+    <row r="522" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>526</v>
       </c>
@@ -23855,7 +23244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:25">
+    <row r="523" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>527</v>
       </c>
@@ -23893,7 +23282,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="524" spans="1:25">
+    <row r="524" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>528</v>
       </c>
@@ -23940,7 +23329,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="525" spans="1:26">
+    <row r="525" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>529</v>
       </c>
@@ -23990,7 +23379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="526" spans="1:25">
+    <row r="526" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>530</v>
       </c>
@@ -24037,7 +23426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="527" spans="1:17">
+    <row r="527" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>531</v>
       </c>
@@ -24066,7 +23455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:17">
+    <row r="528" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>532</v>
       </c>
@@ -24092,7 +23481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:25">
+    <row r="529" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>533</v>
       </c>
@@ -24139,7 +23528,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="530" spans="1:25">
+    <row r="530" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>534</v>
       </c>
@@ -24183,7 +23572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:25">
+    <row r="531" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>535</v>
       </c>
@@ -24224,7 +23613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="532" spans="1:25">
+    <row r="532" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>536</v>
       </c>
@@ -24271,7 +23660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:25">
+    <row r="533" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>537</v>
       </c>
@@ -24315,7 +23704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:31">
+    <row r="534" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>538</v>
       </c>
@@ -24359,7 +23748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:31">
+    <row r="535" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>539</v>
       </c>
@@ -24403,7 +23792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="536" spans="1:31">
+    <row r="536" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>540</v>
       </c>
@@ -24444,7 +23833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:31">
+    <row r="537" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>541</v>
       </c>
@@ -24491,7 +23880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="1:31">
+    <row r="538" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>542</v>
       </c>
@@ -24529,7 +23918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="1:31">
+    <row r="539" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>543</v>
       </c>
@@ -24576,7 +23965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:31">
+    <row r="540" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>544</v>
       </c>
@@ -24626,7 +24015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="541" spans="1:31">
+    <row r="541" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>545</v>
       </c>
@@ -24670,7 +24059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="542" spans="1:31">
+    <row r="542" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>546</v>
       </c>
@@ -24705,7 +24094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:31">
+    <row r="543" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>549</v>
       </c>
@@ -24746,7 +24135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:31">
+    <row r="544" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>550</v>
       </c>
@@ -24784,7 +24173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:31">
+    <row r="545" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>551</v>
       </c>
@@ -24822,7 +24211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:31">
+    <row r="546" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>552</v>
       </c>
@@ -24866,7 +24255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="547" spans="1:25">
+    <row r="547" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>553</v>
       </c>
@@ -24913,7 +24302,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="548" spans="1:31">
+    <row r="548" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>554</v>
       </c>
@@ -24935,26 +24324,12 @@
       <c r="I548">
         <v>2</v>
       </c>
-      <c r="J548"/>
-      <c r="K548"/>
-      <c r="L548"/>
-      <c r="M548"/>
-      <c r="N548"/>
-      <c r="O548"/>
-      <c r="P548"/>
       <c r="Q548">
         <v>12</v>
       </c>
-      <c r="R548"/>
-      <c r="S548"/>
-      <c r="T548"/>
-      <c r="U548"/>
-      <c r="V548"/>
       <c r="W548">
         <v>56</v>
       </c>
-      <c r="X548"/>
-      <c r="Y548"/>
       <c r="Z548">
         <v>24</v>
       </c>
@@ -24962,7 +24337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="549" spans="1:25">
+    <row r="549" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>555</v>
       </c>
@@ -25009,7 +24384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="550" spans="1:25">
+    <row r="550" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>556</v>
       </c>
@@ -25056,7 +24431,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="551" spans="1:31">
+    <row r="551" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>557</v>
       </c>
@@ -25100,7 +24475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:31">
+    <row r="552" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>558</v>
       </c>
@@ -25144,7 +24519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:31">
+    <row r="553" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>559</v>
       </c>
@@ -25191,7 +24566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="554" spans="1:31">
+    <row r="554" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>560</v>
       </c>
@@ -25229,7 +24604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:31">
+    <row r="555" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>561</v>
       </c>
@@ -25276,7 +24651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="1:31">
+    <row r="556" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>4097</v>
       </c>
@@ -25311,7 +24686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:9">
+    <row r="557" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>4098</v>
       </c>
@@ -25334,7 +24709,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="558" spans="1:25">
+    <row r="558" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>4099</v>
       </c>
@@ -25375,7 +24750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="559" spans="1:25">
+    <row r="559" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>4100</v>
       </c>
@@ -25416,7 +24791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="560" spans="1:25">
+    <row r="560" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>4101</v>
       </c>
@@ -25463,7 +24838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="561" spans="1:25">
+    <row r="561" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>4102</v>
       </c>
@@ -25504,7 +24879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="562" spans="1:12">
+    <row r="562" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>4103</v>
       </c>
@@ -25533,7 +24908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>16384</v>
       </c>
@@ -25547,7 +24922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>16389</v>
       </c>
@@ -25561,7 +24936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>16390</v>
       </c>
@@ -25575,7 +24950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>16391</v>
       </c>
@@ -25589,7 +24964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>16392</v>
       </c>
@@ -25603,7 +24978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>16393</v>
       </c>
@@ -25617,7 +24992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>16394</v>
       </c>
@@ -25631,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>16396</v>
       </c>
@@ -25645,7 +25020,7 @@
         <v>16394</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>16401</v>
       </c>
@@ -25659,7 +25034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>16402</v>
       </c>
@@ -25673,7 +25048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>16404</v>
       </c>
@@ -25687,7 +25062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>16415</v>
       </c>
@@ -25701,7 +25076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>16427</v>
       </c>
@@ -25715,7 +25090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>16438</v>
       </c>
@@ -25729,7 +25104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>16439</v>
       </c>
@@ -25743,7 +25118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>16440</v>
       </c>
@@ -25757,7 +25132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>16445</v>
       </c>
@@ -25771,7 +25146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>16446</v>
       </c>
@@ -25785,7 +25160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>16461</v>
       </c>
@@ -25799,7 +25174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>16469</v>
       </c>
@@ -25813,7 +25188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>16470</v>
       </c>
@@ -25828,13 +25203,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AE583">
-    <sortState ref="A2:AE583">
+  <autoFilter ref="A2:AE583" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE583">
       <sortCondition ref="A2"/>
     </sortState>
-    <extLst/>
   </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/equip/Equip.xlsx
+++ b/doc/equip/Equip.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\equip\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B137A04D-074C-4E7B-A2F8-D398D92A0B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="10535"/>
   </bookViews>
   <sheets>
     <sheet name="Equip" sheetId="1" r:id="rId1"/>
@@ -2287,8 +2281,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2297,21 +2297,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2319,9 +2643,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2330,17 +2896,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2598,28 +3208,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE583"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="H308" sqref="H308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
-    <col min="4" max="4" width="23.1328125" customWidth="1"/>
+    <col min="4" max="4" width="23.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2711,7 +3322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2806,7 +3417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2844,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2885,7 +3496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2926,7 +3537,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2967,7 +3578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="14.45" customHeight="1" spans="1:25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3008,7 +3619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3046,7 +3657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3084,7 +3695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3122,7 +3733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3160,7 +3771,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3201,7 +3812,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="14.45" customHeight="1" spans="1:20">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3239,7 +3850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3280,7 +3891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="14.45" customHeight="1" spans="1:22">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3306,7 +3917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3332,7 +3943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3361,7 +3972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3396,7 +4007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3431,7 +4042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3469,7 +4080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3501,7 +4112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3530,7 +4141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3559,7 +4170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3591,7 +4202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3623,7 +4234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3655,7 +4266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3696,7 +4307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3737,7 +4348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3769,7 +4380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3798,7 +4409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3827,7 +4438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3859,7 +4470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3888,7 +4499,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3920,7 +4531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3949,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3978,7 +4589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4004,7 +4615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4033,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4062,7 +4673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4091,7 +4702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4120,7 +4731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4149,7 +4760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4175,7 +4786,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4198,7 +4809,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4221,7 +4832,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4247,7 +4858,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4273,7 +4884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4305,7 +4916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4337,7 +4948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4375,7 +4986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4404,7 +5015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4445,7 +5056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4474,7 +5085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4512,7 +5123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4541,7 +5152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4573,7 +5184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4605,7 +5216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4634,7 +5245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4669,7 +5280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4698,7 +5309,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4739,7 +5350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4774,7 +5385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4809,7 +5420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4853,7 +5464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4900,7 +5511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4941,7 +5552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4982,7 +5593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5023,7 +5634,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5049,7 +5660,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5081,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5116,7 +5727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5157,7 +5768,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5189,7 +5800,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5221,7 +5832,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5247,7 +5858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5273,7 +5884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5317,7 +5928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5364,7 +5975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5408,7 +6019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5452,7 +6063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5493,7 +6104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5537,7 +6148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5575,7 +6186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5613,7 +6224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5645,7 +6256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5677,7 +6288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5703,7 +6314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5732,7 +6343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5764,7 +6375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5799,7 +6410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5840,7 +6451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5887,7 +6498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5916,7 +6527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5963,7 +6574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6010,7 +6621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6042,7 +6653,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6083,7 +6694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6130,7 +6741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6171,7 +6782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6215,7 +6826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:31">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6262,7 +6873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6285,7 +6896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:31">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6320,7 +6931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6361,7 +6972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6408,7 +7019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6449,7 +7060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6484,7 +7095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6519,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6560,7 +7171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6598,7 +7209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:31">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6636,7 +7247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:31">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6677,7 +7288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:31">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6718,7 +7329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:31">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6759,7 +7370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6800,7 +7411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6844,7 +7455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6873,7 +7484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6917,7 +7528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:31">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6955,7 +7566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6996,7 +7607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7025,7 +7636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7054,7 +7665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7101,7 +7712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7145,7 +7756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7183,7 +7794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7218,7 +7829,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7250,7 +7861,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7285,7 +7896,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7329,7 +7940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7367,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7414,7 +8025,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7443,7 +8054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7478,7 +8089,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7522,7 +8133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7569,7 +8180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7613,7 +8224,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7648,7 +8259,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7692,7 +8303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:31">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7730,7 +8341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7771,7 +8382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7800,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7829,7 +8440,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7870,7 +8481,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:31">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7917,7 +8528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:31">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7964,7 +8575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7990,7 +8601,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8016,7 +8627,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8060,7 +8671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:31">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8101,7 +8712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8136,7 +8747,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8162,7 +8773,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:31">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8200,7 +8811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:31">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8241,7 +8852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:31">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8282,7 +8893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:31">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8329,7 +8940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:31">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8370,7 +8981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:31">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8411,7 +9022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:31">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8452,7 +9063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:31">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8490,7 +9101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:31">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8525,7 +9136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8569,7 +9180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8610,7 +9221,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8654,7 +9265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:31">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8701,7 +9312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8739,7 +9350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8777,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8806,7 +9417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:30">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8835,7 +9446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:31">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8876,7 +9487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:31">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8917,7 +9528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:31">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8964,7 +9575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:31">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9008,7 +9619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9055,7 +9666,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9096,7 +9707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:22">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9125,7 +9736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:31">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9160,7 +9771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:31">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9195,7 +9806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:31">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9233,7 +9844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:31">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9271,7 +9882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:22">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9300,7 +9911,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:31">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9341,7 +9952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:31">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9373,7 +9984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:31">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9414,7 +10025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9464,7 +10075,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:31">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9502,7 +10113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:31">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9537,7 +10148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:31">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9581,7 +10192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:31">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9625,7 +10236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:31">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9663,7 +10274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:31">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9698,7 +10309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9742,7 +10353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9774,7 +10385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9815,7 +10426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9841,7 +10452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:31">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9891,7 +10502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:31">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9938,7 +10549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:31">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9979,7 +10590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:31">
       <c r="A198">
         <v>197</v>
       </c>
@@ -10017,7 +10628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:31">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10058,7 +10669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:31">
       <c r="A200">
         <v>199</v>
       </c>
@@ -10102,7 +10713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:31">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10143,7 +10754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:31">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10181,7 +10792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:31">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10219,7 +10830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10251,7 +10862,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10283,7 +10894,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:31">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10324,7 +10935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:31">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10365,7 +10976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:31">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10409,7 +11020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:31">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10453,7 +11064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10479,7 +11090,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10520,7 +11131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10558,7 +11169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:31">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10593,7 +11204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:22">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10625,7 +11236,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:22">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10660,7 +11271,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10698,7 +11309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10739,7 +11350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10774,7 +11385,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:31">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10809,7 +11420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:31">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10844,7 +11455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10891,7 +11502,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:31">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10923,7 +11534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:31">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10961,7 +11572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31">
       <c r="A224">
         <v>223</v>
       </c>
@@ -11005,7 +11616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:31">
       <c r="A225">
         <v>224</v>
       </c>
@@ -11049,7 +11660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:31">
       <c r="A226">
         <v>225</v>
       </c>
@@ -11093,7 +11704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26">
       <c r="A227">
         <v>226</v>
       </c>
@@ -11119,7 +11730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26">
       <c r="A228">
         <v>227</v>
       </c>
@@ -11145,7 +11756,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:31">
       <c r="A229">
         <v>228</v>
       </c>
@@ -11180,7 +11791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26">
       <c r="A230">
         <v>229</v>
       </c>
@@ -11227,7 +11838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:29">
       <c r="A231">
         <v>230</v>
       </c>
@@ -11253,7 +11864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20">
       <c r="A232">
         <v>231</v>
       </c>
@@ -11300,7 +11911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -11347,7 +11958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:31">
       <c r="A234">
         <v>233</v>
       </c>
@@ -11394,7 +12005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -11438,7 +12049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -11485,7 +12096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11529,7 +12140,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:31">
       <c r="A238">
         <v>237</v>
       </c>
@@ -11576,7 +12187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:31">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11617,7 +12228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:31">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11661,7 +12272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11696,7 +12307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11722,7 +12333,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:31">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11763,7 +12374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:31">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11804,7 +12415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:31">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11848,7 +12459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11892,7 +12503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11936,7 +12547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11980,7 +12591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:31">
       <c r="A249">
         <v>248</v>
       </c>
@@ -12018,7 +12629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:31">
       <c r="A250">
         <v>249</v>
       </c>
@@ -12065,7 +12676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:31">
       <c r="A251">
         <v>250</v>
       </c>
@@ -12106,7 +12717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:31">
       <c r="A252">
         <v>251</v>
       </c>
@@ -12144,7 +12755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:31">
       <c r="A253">
         <v>252</v>
       </c>
@@ -12188,7 +12799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:31">
       <c r="A254">
         <v>253</v>
       </c>
@@ -12229,7 +12840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:31">
       <c r="A255">
         <v>254</v>
       </c>
@@ -12273,7 +12884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:31">
       <c r="A256">
         <v>255</v>
       </c>
@@ -12317,7 +12928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:31">
       <c r="A257">
         <v>256</v>
       </c>
@@ -12358,7 +12969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:31">
       <c r="A258">
         <v>257</v>
       </c>
@@ -12405,7 +13016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19">
       <c r="A259">
         <v>258</v>
       </c>
@@ -12443,7 +13054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19">
       <c r="A260">
         <v>259</v>
       </c>
@@ -12484,7 +13095,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:26">
       <c r="A261">
         <v>260</v>
       </c>
@@ -12522,7 +13133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:26">
       <c r="A262">
         <v>261</v>
       </c>
@@ -12557,7 +13168,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:26">
       <c r="A263">
         <v>262</v>
       </c>
@@ -12592,7 +13203,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:31">
       <c r="A264">
         <v>263</v>
       </c>
@@ -12633,7 +13244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:31">
       <c r="A265">
         <v>264</v>
       </c>
@@ -12674,7 +13285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:31">
       <c r="A266">
         <v>265</v>
       </c>
@@ -12715,7 +13326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -12762,7 +13373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -12809,7 +13420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16">
       <c r="A269">
         <v>268</v>
       </c>
@@ -12841,7 +13452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:31">
       <c r="A270">
         <v>269</v>
       </c>
@@ -12876,7 +13487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:31">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12917,7 +13528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:31">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12955,7 +13566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17">
       <c r="A273">
         <v>272</v>
       </c>
@@ -12990,7 +13601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:31">
       <c r="A274">
         <v>273</v>
       </c>
@@ -13025,7 +13636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -13060,7 +13671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -13110,7 +13721,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -13154,7 +13765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:31">
       <c r="A278">
         <v>277</v>
       </c>
@@ -13204,7 +13815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -13242,7 +13853,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -13286,7 +13897,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:26">
       <c r="A281">
         <v>280</v>
       </c>
@@ -13336,7 +13947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -13383,7 +13994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -13427,7 +14038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:22">
       <c r="A284">
         <v>283</v>
       </c>
@@ -13462,7 +14073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -13509,7 +14120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:22">
       <c r="A286">
         <v>285</v>
       </c>
@@ -13544,7 +14155,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:22">
       <c r="A287">
         <v>286</v>
       </c>
@@ -13579,7 +14190,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:26">
       <c r="A288">
         <v>287</v>
       </c>
@@ -13605,7 +14216,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:26">
       <c r="A289">
         <v>288</v>
       </c>
@@ -13637,7 +14248,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -13684,7 +14295,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -13728,7 +14339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:31">
       <c r="A292">
         <v>291</v>
       </c>
@@ -13772,7 +14383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:31">
       <c r="A293">
         <v>292</v>
       </c>
@@ -13822,7 +14433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -13866,7 +14477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -13913,7 +14524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -13963,7 +14574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14013,7 +14624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -14054,7 +14665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:20">
       <c r="A299">
         <v>298</v>
       </c>
@@ -14092,7 +14703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -14133,7 +14744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14180,7 +14791,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -14209,7 +14820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:31">
       <c r="A303">
         <v>302</v>
       </c>
@@ -14253,7 +14864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -14300,7 +14911,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:31">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14338,7 +14949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:31">
       <c r="A306">
         <v>305</v>
       </c>
@@ -14382,7 +14993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:31">
       <c r="A307">
         <v>306</v>
       </c>
@@ -14432,7 +15043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -14479,7 +15090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -14529,7 +15140,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="310" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:22">
       <c r="A310">
         <v>309</v>
       </c>
@@ -14561,7 +15172,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="311" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -14608,7 +15219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:31">
       <c r="A312">
         <v>311</v>
       </c>
@@ -14643,7 +15254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:31">
       <c r="A313">
         <v>312</v>
       </c>
@@ -14684,7 +15295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -14728,7 +15339,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="315" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:22">
       <c r="A315">
         <v>314</v>
       </c>
@@ -14769,7 +15380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="316" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:26">
       <c r="A316">
         <v>315</v>
       </c>
@@ -14816,7 +15427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:31">
       <c r="A317">
         <v>316</v>
       </c>
@@ -14860,7 +15471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -14892,7 +15503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -14939,7 +15550,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="320" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:31">
       <c r="A320">
         <v>319</v>
       </c>
@@ -14986,7 +15597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:31">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15027,7 +15638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:31">
       <c r="A322">
         <v>322</v>
       </c>
@@ -15077,7 +15688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:31">
       <c r="A323">
         <v>323</v>
       </c>
@@ -15127,7 +15738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:31">
       <c r="A324">
         <v>324</v>
       </c>
@@ -15162,7 +15773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:31">
       <c r="A325">
         <v>325</v>
       </c>
@@ -15200,7 +15811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:31">
       <c r="A326">
         <v>326</v>
       </c>
@@ -15241,7 +15852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:31">
       <c r="A327">
         <v>327</v>
       </c>
@@ -15279,7 +15890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:25">
       <c r="A328">
         <v>328</v>
       </c>
@@ -15326,7 +15937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="329" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:25">
       <c r="A329">
         <v>329</v>
       </c>
@@ -15373,7 +15984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:20">
       <c r="A330">
         <v>330</v>
       </c>
@@ -15414,7 +16025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:25">
       <c r="A331">
         <v>331</v>
       </c>
@@ -15458,7 +16069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:25">
       <c r="A332">
         <v>332</v>
       </c>
@@ -15502,7 +16113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="333" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:31">
       <c r="A333">
         <v>333</v>
       </c>
@@ -15540,7 +16151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:31">
       <c r="A334">
         <v>334</v>
       </c>
@@ -15581,7 +16192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:31">
       <c r="A335">
         <v>336</v>
       </c>
@@ -15619,7 +16230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:31">
       <c r="A336">
         <v>338</v>
       </c>
@@ -15666,7 +16277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:31">
       <c r="A337">
         <v>339</v>
       </c>
@@ -15713,7 +16324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:25">
       <c r="A338">
         <v>340</v>
       </c>
@@ -15760,7 +16371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:25">
       <c r="A339">
         <v>341</v>
       </c>
@@ -15807,7 +16418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:31">
       <c r="A340">
         <v>342</v>
       </c>
@@ -15851,7 +16462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:31">
       <c r="A341">
         <v>343</v>
       </c>
@@ -15898,7 +16509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:31">
       <c r="A342">
         <v>344</v>
       </c>
@@ -15939,7 +16550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:31">
       <c r="A343">
         <v>345</v>
       </c>
@@ -15980,7 +16591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:26">
       <c r="A344">
         <v>346</v>
       </c>
@@ -16012,7 +16623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:26">
       <c r="A345">
         <v>347</v>
       </c>
@@ -16044,7 +16655,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12">
       <c r="A346">
         <v>348</v>
       </c>
@@ -16073,7 +16684,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="347" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12">
       <c r="A347">
         <v>349</v>
       </c>
@@ -16102,7 +16713,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="348" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:31">
       <c r="A348">
         <v>350</v>
       </c>
@@ -16137,7 +16748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:31">
       <c r="A349">
         <v>351</v>
       </c>
@@ -16169,7 +16780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:31">
       <c r="A350">
         <v>352</v>
       </c>
@@ -16201,7 +16812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:31">
       <c r="A351">
         <v>353</v>
       </c>
@@ -16242,7 +16853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:31">
       <c r="A352">
         <v>354</v>
       </c>
@@ -16283,7 +16894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:29">
       <c r="A353">
         <v>355</v>
       </c>
@@ -16318,7 +16929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="354" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:25">
       <c r="A354">
         <v>356</v>
       </c>
@@ -16362,7 +16973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:25">
       <c r="A355">
         <v>357</v>
       </c>
@@ -16406,7 +17017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:25">
       <c r="A356">
         <v>358</v>
       </c>
@@ -16453,7 +17064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="357" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:25">
       <c r="A357">
         <v>359</v>
       </c>
@@ -16503,7 +17114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="358" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:25">
       <c r="A358">
         <v>360</v>
       </c>
@@ -16550,7 +17161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="359" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:25">
       <c r="A359">
         <v>361</v>
       </c>
@@ -16597,7 +17208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="360" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:25">
       <c r="A360">
         <v>362</v>
       </c>
@@ -16644,7 +17255,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="361" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:25">
       <c r="A361">
         <v>363</v>
       </c>
@@ -16694,7 +17305,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="362" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:22">
       <c r="A362">
         <v>364</v>
       </c>
@@ -16726,7 +17337,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="363" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14">
       <c r="A363">
         <v>365</v>
       </c>
@@ -16755,7 +17366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:26">
       <c r="A364">
         <v>366</v>
       </c>
@@ -16805,7 +17416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:31">
       <c r="A365">
         <v>367</v>
       </c>
@@ -16852,7 +17463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:31">
       <c r="A366">
         <v>368</v>
       </c>
@@ -16896,7 +17507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:31">
       <c r="A367">
         <v>369</v>
       </c>
@@ -16943,7 +17554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:31">
       <c r="A368">
         <v>370</v>
       </c>
@@ -16981,7 +17592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:31">
       <c r="A369">
         <v>371</v>
       </c>
@@ -17025,7 +17636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:31">
       <c r="A370">
         <v>372</v>
       </c>
@@ -17063,7 +17674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:31">
       <c r="A371">
         <v>373</v>
       </c>
@@ -17107,7 +17718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:31">
       <c r="A372">
         <v>374</v>
       </c>
@@ -17154,7 +17765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:31">
       <c r="A373">
         <v>375</v>
       </c>
@@ -17189,7 +17800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:22">
       <c r="A374">
         <v>376</v>
       </c>
@@ -17227,7 +17838,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="375" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:26">
       <c r="A375">
         <v>377</v>
       </c>
@@ -17265,7 +17876,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="376" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:26">
       <c r="A376">
         <v>378</v>
       </c>
@@ -17294,7 +17905,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="377" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:26">
       <c r="A377">
         <v>379</v>
       </c>
@@ -17341,7 +17952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:26">
       <c r="A378">
         <v>380</v>
       </c>
@@ -17388,7 +17999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:25">
       <c r="A379">
         <v>381</v>
       </c>
@@ -17429,7 +18040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:26">
       <c r="A380">
         <v>382</v>
       </c>
@@ -17479,7 +18090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:22">
       <c r="A381">
         <v>383</v>
       </c>
@@ -17511,7 +18122,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="382" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:22">
       <c r="A382">
         <v>384</v>
       </c>
@@ -17552,7 +18163,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="383" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:25">
       <c r="A383">
         <v>385</v>
       </c>
@@ -17593,7 +18204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:25">
       <c r="A384">
         <v>386</v>
       </c>
@@ -17640,7 +18251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:25">
       <c r="A385">
         <v>387</v>
       </c>
@@ -17687,7 +18298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="386" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:31">
       <c r="A386">
         <v>388</v>
       </c>
@@ -17734,7 +18345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:31">
       <c r="A387">
         <v>389</v>
       </c>
@@ -17784,7 +18395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:25">
       <c r="A388">
         <v>390</v>
       </c>
@@ -17834,7 +18445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="389" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:31">
       <c r="A389">
         <v>391</v>
       </c>
@@ -17875,7 +18486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:31">
       <c r="A390">
         <v>392</v>
       </c>
@@ -17925,7 +18536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:25">
       <c r="A391">
         <v>393</v>
       </c>
@@ -17969,7 +18580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:25">
       <c r="A392">
         <v>394</v>
       </c>
@@ -18013,7 +18624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:31">
       <c r="A393">
         <v>395</v>
       </c>
@@ -18051,7 +18662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:31">
       <c r="A394">
         <v>396</v>
       </c>
@@ -18086,7 +18697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:25">
       <c r="A395">
         <v>397</v>
       </c>
@@ -18130,7 +18741,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="396" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:25">
       <c r="A396">
         <v>398</v>
       </c>
@@ -18174,7 +18785,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="397" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:25">
       <c r="A397">
         <v>399</v>
       </c>
@@ -18221,7 +18832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:22">
       <c r="A398">
         <v>400</v>
       </c>
@@ -18256,7 +18867,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="399" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:31">
       <c r="A399">
         <v>401</v>
       </c>
@@ -18297,7 +18908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9">
       <c r="A400">
         <v>402</v>
       </c>
@@ -18323,7 +18934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:31">
       <c r="A401">
         <v>403</v>
       </c>
@@ -18367,7 +18978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:31">
       <c r="A402">
         <v>404</v>
       </c>
@@ -18414,7 +19025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:31">
       <c r="A403">
         <v>405</v>
       </c>
@@ -18455,7 +19066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:31">
       <c r="A404">
         <v>406</v>
       </c>
@@ -18496,7 +19107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:25">
       <c r="A405">
         <v>407</v>
       </c>
@@ -18543,7 +19154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="406" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:30">
       <c r="A406">
         <v>408</v>
       </c>
@@ -18584,7 +19195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="407" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:30">
       <c r="A407">
         <v>409</v>
       </c>
@@ -18622,7 +19233,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="408" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:25">
       <c r="A408">
         <v>410</v>
       </c>
@@ -18657,7 +19268,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="409" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:25">
       <c r="A409">
         <v>411</v>
       </c>
@@ -18692,7 +19303,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="410" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:25">
       <c r="A410">
         <v>412</v>
       </c>
@@ -18736,7 +19347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:22">
       <c r="A411">
         <v>413</v>
       </c>
@@ -18768,7 +19379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="412" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:31">
       <c r="A412">
         <v>414</v>
       </c>
@@ -18809,7 +19420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:31">
       <c r="A413">
         <v>415</v>
       </c>
@@ -18847,7 +19458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:31">
       <c r="A414">
         <v>416</v>
       </c>
@@ -18888,7 +19499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:31">
       <c r="A415">
         <v>417</v>
       </c>
@@ -18929,7 +19540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:31">
       <c r="A416">
         <v>418</v>
       </c>
@@ -18970,7 +19581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:31">
       <c r="A417">
         <v>419</v>
       </c>
@@ -19017,7 +19628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:31">
       <c r="A418">
         <v>420</v>
       </c>
@@ -19067,7 +19678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:31">
       <c r="A419">
         <v>421</v>
       </c>
@@ -19117,7 +19728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:31">
       <c r="A420">
         <v>422</v>
       </c>
@@ -19158,7 +19769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:31">
       <c r="A421">
         <v>423</v>
       </c>
@@ -19202,7 +19813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:31">
       <c r="A422">
         <v>424</v>
       </c>
@@ -19240,7 +19851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:31">
       <c r="A423">
         <v>425</v>
       </c>
@@ -19278,7 +19889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:20">
       <c r="A424">
         <v>426</v>
       </c>
@@ -19325,7 +19936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:20">
       <c r="A425">
         <v>427</v>
       </c>
@@ -19369,7 +19980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:20">
       <c r="A426">
         <v>428</v>
       </c>
@@ -19413,7 +20024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:20">
       <c r="A427">
         <v>429</v>
       </c>
@@ -19457,7 +20068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:25">
       <c r="A428">
         <v>430</v>
       </c>
@@ -19504,7 +20115,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="429" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:31">
       <c r="A429">
         <v>431</v>
       </c>
@@ -19548,7 +20159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:31">
       <c r="A430">
         <v>432</v>
       </c>
@@ -19589,7 +20200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:31">
       <c r="A431">
         <v>433</v>
       </c>
@@ -19636,7 +20247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:31">
       <c r="A432">
         <v>434</v>
       </c>
@@ -19674,7 +20285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:31">
       <c r="A433">
         <v>435</v>
       </c>
@@ -19718,7 +20329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:29">
       <c r="A434">
         <v>436</v>
       </c>
@@ -19753,7 +20364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="435" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:31">
       <c r="A435">
         <v>437</v>
       </c>
@@ -19788,7 +20399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:26">
       <c r="A436">
         <v>438</v>
       </c>
@@ -19826,7 +20437,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="437" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:26">
       <c r="A437">
         <v>439</v>
       </c>
@@ -19861,7 +20472,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="438" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:22">
       <c r="A438">
         <v>440</v>
       </c>
@@ -19890,7 +20501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="439" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:22">
       <c r="A439">
         <v>441</v>
       </c>
@@ -19922,7 +20533,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="440" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:22">
       <c r="A440">
         <v>442</v>
       </c>
@@ -19954,7 +20565,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="441" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:22">
       <c r="A441">
         <v>443</v>
       </c>
@@ -19986,7 +20597,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="442" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:31">
       <c r="A442">
         <v>444</v>
       </c>
@@ -20033,7 +20644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:31">
       <c r="A443">
         <v>445</v>
       </c>
@@ -20071,7 +20682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:31">
       <c r="A444">
         <v>446</v>
       </c>
@@ -20109,7 +20720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:31">
       <c r="A445">
         <v>447</v>
       </c>
@@ -20150,7 +20761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:29">
       <c r="A446">
         <v>449</v>
       </c>
@@ -20179,7 +20790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="447" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:25">
       <c r="A447">
         <v>450</v>
       </c>
@@ -20214,7 +20825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:31">
       <c r="A448">
         <v>451</v>
       </c>
@@ -20252,7 +20863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:31">
       <c r="A449">
         <v>452</v>
       </c>
@@ -20290,7 +20901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:31">
       <c r="A450">
         <v>453</v>
       </c>
@@ -20337,7 +20948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:31">
       <c r="A451">
         <v>454</v>
       </c>
@@ -20387,7 +20998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:25">
       <c r="A452">
         <v>455</v>
       </c>
@@ -20428,7 +21039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:26">
       <c r="A453">
         <v>456</v>
       </c>
@@ -20475,7 +21086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:22">
       <c r="A454">
         <v>457</v>
       </c>
@@ -20510,7 +21121,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="455" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:22">
       <c r="A455">
         <v>458</v>
       </c>
@@ -20551,7 +21162,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="456" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:31">
       <c r="A456">
         <v>459</v>
       </c>
@@ -20595,7 +21206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:25">
       <c r="A457">
         <v>460</v>
       </c>
@@ -20639,7 +21250,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="458" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:22">
       <c r="A458">
         <v>461</v>
       </c>
@@ -20677,7 +21288,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="459" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:25">
       <c r="A459">
         <v>463</v>
       </c>
@@ -20724,7 +21335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:25">
       <c r="A460">
         <v>464</v>
       </c>
@@ -20771,7 +21382,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="461" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:25">
       <c r="A461">
         <v>465</v>
       </c>
@@ -20818,7 +21429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="462" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:31">
       <c r="A462">
         <v>466</v>
       </c>
@@ -20865,7 +21476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:25">
       <c r="A463">
         <v>467</v>
       </c>
@@ -20909,7 +21520,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="464" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:25">
       <c r="A464">
         <v>468</v>
       </c>
@@ -20953,7 +21564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="465" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:31">
       <c r="A465">
         <v>469</v>
       </c>
@@ -20994,7 +21605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:26">
       <c r="A466">
         <v>470</v>
       </c>
@@ -21044,7 +21655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="467" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:31">
       <c r="A467">
         <v>471</v>
       </c>
@@ -21082,7 +21693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:26">
       <c r="A468">
         <v>472</v>
       </c>
@@ -21117,7 +21728,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="469" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:31">
       <c r="A469">
         <v>473</v>
       </c>
@@ -21161,7 +21772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:31">
       <c r="A470">
         <v>474</v>
       </c>
@@ -21208,7 +21819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:31">
       <c r="A471">
         <v>475</v>
       </c>
@@ -21255,7 +21866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:31">
       <c r="A472">
         <v>476</v>
       </c>
@@ -21302,7 +21913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="473" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:25">
       <c r="A473">
         <v>477</v>
       </c>
@@ -21346,7 +21957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:26">
       <c r="A474">
         <v>478</v>
       </c>
@@ -21402,7 +22013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:31">
       <c r="A475">
         <v>479</v>
       </c>
@@ -21449,7 +22060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:31">
       <c r="A476">
         <v>480</v>
       </c>
@@ -21484,7 +22095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="477" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:31">
       <c r="A477">
         <v>481</v>
       </c>
@@ -21528,7 +22139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:29">
       <c r="A478">
         <v>482</v>
       </c>
@@ -21563,7 +22174,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="479" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:25">
       <c r="A479">
         <v>483</v>
       </c>
@@ -21598,7 +22209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:31">
       <c r="A480">
         <v>484</v>
       </c>
@@ -21645,7 +22256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:25">
       <c r="A481">
         <v>485</v>
       </c>
@@ -21680,7 +22291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="482" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:31">
       <c r="A482">
         <v>486</v>
       </c>
@@ -21721,7 +22332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:31">
       <c r="A483">
         <v>487</v>
       </c>
@@ -21768,7 +22379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:26">
       <c r="A484">
         <v>488</v>
       </c>
@@ -21803,7 +22414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="485" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:31">
       <c r="A485">
         <v>489</v>
       </c>
@@ -21844,7 +22455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:31">
       <c r="A486">
         <v>490</v>
       </c>
@@ -21888,7 +22499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:31">
       <c r="A487">
         <v>491</v>
       </c>
@@ -21935,7 +22546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="488" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:31">
       <c r="A488">
         <v>492</v>
       </c>
@@ -21976,7 +22587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="489" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:31">
       <c r="A489">
         <v>493</v>
       </c>
@@ -22023,7 +22634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:29">
       <c r="A490">
         <v>494</v>
       </c>
@@ -22052,7 +22663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="491" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:29">
       <c r="A491">
         <v>495</v>
       </c>
@@ -22084,7 +22695,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="492" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:29">
       <c r="A492">
         <v>496</v>
       </c>
@@ -22110,7 +22721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="493" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:29">
       <c r="A493">
         <v>497</v>
       </c>
@@ -22136,7 +22747,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="494" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:29">
       <c r="A494">
         <v>498</v>
       </c>
@@ -22162,7 +22773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="495" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:29">
       <c r="A495">
         <v>499</v>
       </c>
@@ -22191,7 +22802,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="496" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:18">
       <c r="A496">
         <v>500</v>
       </c>
@@ -22220,7 +22831,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="497" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:18">
       <c r="A497">
         <v>501</v>
       </c>
@@ -22249,7 +22860,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="498" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:25">
       <c r="A498">
         <v>502</v>
       </c>
@@ -22299,7 +22910,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="499" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:25">
       <c r="A499">
         <v>503</v>
       </c>
@@ -22346,7 +22957,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="500" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:31">
       <c r="A500">
         <v>504</v>
       </c>
@@ -22393,7 +23004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="501" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:25">
       <c r="A501">
         <v>505</v>
       </c>
@@ -22422,7 +23033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:26">
       <c r="A502">
         <v>506</v>
       </c>
@@ -22463,7 +23074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:20">
       <c r="A503">
         <v>507</v>
       </c>
@@ -22507,7 +23118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="504" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:20">
       <c r="A504">
         <v>508</v>
       </c>
@@ -22545,7 +23156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="505" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:26">
       <c r="A505">
         <v>509</v>
       </c>
@@ -22595,7 +23206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:31">
       <c r="A506">
         <v>510</v>
       </c>
@@ -22630,7 +23241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:22">
       <c r="A507">
         <v>511</v>
       </c>
@@ -22659,7 +23270,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="508" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:22">
       <c r="A508">
         <v>512</v>
       </c>
@@ -22691,7 +23302,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="509" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:16">
       <c r="A509">
         <v>513</v>
       </c>
@@ -22717,7 +23328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:29">
       <c r="A510">
         <v>514</v>
       </c>
@@ -22752,7 +23363,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="511" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:31">
       <c r="A511">
         <v>515</v>
       </c>
@@ -22787,7 +23398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:31">
       <c r="A512">
         <v>516</v>
       </c>
@@ -22828,7 +23439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:26">
       <c r="A513">
         <v>517</v>
       </c>
@@ -22866,7 +23477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:25">
       <c r="A514">
         <v>518</v>
       </c>
@@ -22910,7 +23521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:22">
       <c r="A515">
         <v>519</v>
       </c>
@@ -22948,7 +23559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="516" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:25">
       <c r="A516">
         <v>520</v>
       </c>
@@ -22992,7 +23603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="517" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:31">
       <c r="A517">
         <v>521</v>
       </c>
@@ -23036,7 +23647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:31">
       <c r="A518">
         <v>522</v>
       </c>
@@ -23077,7 +23688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:31">
       <c r="A519">
         <v>523</v>
       </c>
@@ -23121,7 +23732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:26">
       <c r="A520">
         <v>524</v>
       </c>
@@ -23171,7 +23782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:30">
       <c r="A521">
         <v>525</v>
       </c>
@@ -23206,7 +23817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="522" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:30">
       <c r="A522">
         <v>526</v>
       </c>
@@ -23244,7 +23855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:25">
       <c r="A523">
         <v>527</v>
       </c>
@@ -23282,7 +23893,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="524" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:25">
       <c r="A524">
         <v>528</v>
       </c>
@@ -23329,7 +23940,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="525" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:26">
       <c r="A525">
         <v>529</v>
       </c>
@@ -23379,7 +23990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="526" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:25">
       <c r="A526">
         <v>530</v>
       </c>
@@ -23426,7 +24037,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="527" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:17">
       <c r="A527">
         <v>531</v>
       </c>
@@ -23455,7 +24066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:17">
       <c r="A528">
         <v>532</v>
       </c>
@@ -23481,7 +24092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:25">
       <c r="A529">
         <v>533</v>
       </c>
@@ -23528,7 +24139,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="530" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:25">
       <c r="A530">
         <v>534</v>
       </c>
@@ -23572,7 +24183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:25">
       <c r="A531">
         <v>535</v>
       </c>
@@ -23613,7 +24224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="532" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:25">
       <c r="A532">
         <v>536</v>
       </c>
@@ -23660,7 +24271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:25">
       <c r="A533">
         <v>537</v>
       </c>
@@ -23704,7 +24315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:31">
       <c r="A534">
         <v>538</v>
       </c>
@@ -23748,7 +24359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:31">
       <c r="A535">
         <v>539</v>
       </c>
@@ -23792,7 +24403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="536" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:31">
       <c r="A536">
         <v>540</v>
       </c>
@@ -23833,7 +24444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:31">
       <c r="A537">
         <v>541</v>
       </c>
@@ -23880,7 +24491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:31">
       <c r="A538">
         <v>542</v>
       </c>
@@ -23918,7 +24529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:31">
       <c r="A539">
         <v>543</v>
       </c>
@@ -23965,7 +24576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:31">
       <c r="A540">
         <v>544</v>
       </c>
@@ -24015,7 +24626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="541" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:31">
       <c r="A541">
         <v>545</v>
       </c>
@@ -24059,7 +24670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="542" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:31">
       <c r="A542">
         <v>546</v>
       </c>
@@ -24094,7 +24705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:31">
       <c r="A543">
         <v>549</v>
       </c>
@@ -24135,7 +24746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:31">
       <c r="A544">
         <v>550</v>
       </c>
@@ -24173,7 +24784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:31">
       <c r="A545">
         <v>551</v>
       </c>
@@ -24211,7 +24822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:31">
       <c r="A546">
         <v>552</v>
       </c>
@@ -24255,7 +24866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="547" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:25">
       <c r="A547">
         <v>553</v>
       </c>
@@ -24302,7 +24913,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="548" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:31">
       <c r="A548">
         <v>554</v>
       </c>
@@ -24337,7 +24948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="549" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:25">
       <c r="A549">
         <v>555</v>
       </c>
@@ -24384,7 +24995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="550" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:25">
       <c r="A550">
         <v>556</v>
       </c>
@@ -24431,7 +25042,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="551" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:31">
       <c r="A551">
         <v>557</v>
       </c>
@@ -24475,7 +25086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:31">
       <c r="A552">
         <v>558</v>
       </c>
@@ -24519,7 +25130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:31">
       <c r="A553">
         <v>559</v>
       </c>
@@ -24566,7 +25177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="554" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:31">
       <c r="A554">
         <v>560</v>
       </c>
@@ -24604,7 +25215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:31">
       <c r="A555">
         <v>561</v>
       </c>
@@ -24651,7 +25262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:31">
       <c r="A556">
         <v>4097</v>
       </c>
@@ -24686,7 +25297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9">
       <c r="A557">
         <v>4098</v>
       </c>
@@ -24709,7 +25320,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="558" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:25">
       <c r="A558">
         <v>4099</v>
       </c>
@@ -24750,7 +25361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="559" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:25">
       <c r="A559">
         <v>4100</v>
       </c>
@@ -24791,7 +25402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="560" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:25">
       <c r="A560">
         <v>4101</v>
       </c>
@@ -24838,7 +25449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="561" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:25">
       <c r="A561">
         <v>4102</v>
       </c>
@@ -24879,7 +25490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="562" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:12">
       <c r="A562">
         <v>4103</v>
       </c>
@@ -24908,7 +25519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6">
       <c r="A563">
         <v>16384</v>
       </c>
@@ -24922,7 +25533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6">
       <c r="A564">
         <v>16389</v>
       </c>
@@ -24936,7 +25547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6">
       <c r="A565">
         <v>16390</v>
       </c>
@@ -24950,7 +25561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6">
       <c r="A566">
         <v>16391</v>
       </c>
@@ -24964,7 +25575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6">
       <c r="A567">
         <v>16392</v>
       </c>
@@ -24978,7 +25589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6">
       <c r="A568">
         <v>16393</v>
       </c>
@@ -24992,7 +25603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6">
       <c r="A569">
         <v>16394</v>
       </c>
@@ -25006,7 +25617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6">
       <c r="A570">
         <v>16396</v>
       </c>
@@ -25020,7 +25631,7 @@
         <v>16394</v>
       </c>
     </row>
-    <row r="571" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6">
       <c r="A571">
         <v>16401</v>
       </c>
@@ -25034,7 +25645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6">
       <c r="A572">
         <v>16402</v>
       </c>
@@ -25048,7 +25659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6">
       <c r="A573">
         <v>16404</v>
       </c>
@@ -25062,7 +25673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6">
       <c r="A574">
         <v>16415</v>
       </c>
@@ -25076,7 +25687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6">
       <c r="A575">
         <v>16427</v>
       </c>
@@ -25090,7 +25701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6">
       <c r="A576">
         <v>16438</v>
       </c>
@@ -25104,7 +25715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6">
       <c r="A577">
         <v>16439</v>
       </c>
@@ -25118,7 +25729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6">
       <c r="A578">
         <v>16440</v>
       </c>
@@ -25132,7 +25743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6">
       <c r="A579">
         <v>16445</v>
       </c>
@@ -25146,7 +25757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6">
       <c r="A580">
         <v>16446</v>
       </c>
@@ -25160,7 +25771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6">
       <c r="A581">
         <v>16461</v>
       </c>
@@ -25174,7 +25785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6">
       <c r="A582">
         <v>16469</v>
       </c>
@@ -25188,7 +25799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6">
       <c r="A583">
         <v>16470</v>
       </c>
@@ -25203,12 +25814,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AE583" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE583">
+  <autoFilter ref="A2:AE583">
+    <sortState ref="A2:AE583">
       <sortCondition ref="A2"/>
     </sortState>
+    <extLst/>
   </autoFilter>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/equip/Equip.xlsx
+++ b/doc/equip/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\equip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D61495-0C09-4B91-9D75-EDA4399E3B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2297F4-61B0-4168-8443-FCAA119A02C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2607,16 +2607,41 @@
   <dimension ref="A1:AE583"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C530" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="H541" sqref="H541"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="67" customWidth="1"/>
-    <col min="4" max="4" width="23.1328125" customWidth="1"/>
+    <col min="1" max="1" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.06640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
@@ -24068,6 +24093,9 @@
         <v>1948</v>
       </c>
       <c r="F541">
+        <v>374</v>
+      </c>
+      <c r="H541">
         <v>374</v>
       </c>
       <c r="I541">

--- a/doc/equip/Equip.xlsx
+++ b/doc/equip/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\equip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2297F4-61B0-4168-8443-FCAA119A02C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D509B5FD-80FD-45D4-AD6A-CD4696AFF6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Equip!$A$2:$AE$583</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2604,13 +2615,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE583"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C530" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H541" sqref="H541"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2831,7 +2843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2869,7 +2881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2910,7 +2922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2951,7 +2963,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2992,7 +3004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3033,7 +3045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3071,7 +3083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3109,7 +3121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3147,7 +3159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3185,7 +3197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3226,7 +3238,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3264,7 +3276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3305,7 +3317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3331,7 +3343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3357,7 +3369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3386,7 +3398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3421,7 +3433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3456,7 +3468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3494,7 +3506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3526,7 +3538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3555,7 +3567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3584,7 +3596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3616,7 +3628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3648,7 +3660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3680,7 +3692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3721,7 +3733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3762,7 +3774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3794,7 +3806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3823,7 +3835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3852,7 +3864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3884,7 +3896,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3913,7 +3925,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3945,7 +3957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3974,7 +3986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4003,7 +4015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4032,7 +4044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4180,7 +4192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4206,7 +4218,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4229,7 +4241,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4252,7 +4264,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4278,7 +4290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4304,7 +4316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4336,7 +4348,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4368,7 +4380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4435,7 +4447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4505,7 +4517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4543,7 +4555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4572,7 +4584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4604,7 +4616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4636,7 +4648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4665,7 +4677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4700,7 +4712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4729,7 +4741,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4770,7 +4782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4805,7 +4817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4840,7 +4852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4884,7 +4896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4931,7 +4943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4972,7 +4984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5013,7 +5025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5054,7 +5066,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5083,7 +5095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5115,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5150,7 +5162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5191,7 +5203,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5223,7 +5235,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5255,7 +5267,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5281,7 +5293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5307,7 +5319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5351,7 +5363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5398,7 +5410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5442,7 +5454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5486,7 +5498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5527,7 +5539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5571,7 +5583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5609,7 +5621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5679,7 +5691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5711,7 +5723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5737,7 +5749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5766,7 +5778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5798,7 +5810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5833,7 +5845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5874,7 +5886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5950,7 +5962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5997,7 +6009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6044,7 +6056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6076,7 +6088,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6117,7 +6129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6164,7 +6176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6205,7 +6217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6249,7 +6261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6296,7 +6308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6319,7 +6331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6354,7 +6366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6395,7 +6407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6442,7 +6454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6483,7 +6495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6518,7 +6530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6553,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6594,7 +6606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6632,7 +6644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6670,7 +6682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6711,7 +6723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6752,7 +6764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6793,7 +6805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6834,7 +6846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6878,7 +6890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6910,7 +6922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6954,7 +6966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6992,7 +7004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7033,7 +7045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7062,7 +7074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7091,7 +7103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7138,7 +7150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7182,7 +7194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7220,7 +7232,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7255,7 +7267,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7290,7 +7302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7325,7 +7337,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7369,7 +7381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7407,7 +7419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7483,7 +7495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7518,7 +7530,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7562,7 +7574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7609,7 +7621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7653,7 +7665,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7688,7 +7700,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7732,7 +7744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7770,7 +7782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7811,7 +7823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7840,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7869,7 +7881,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7910,7 +7922,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7957,7 +7969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -8004,7 +8016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -8030,7 +8042,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8056,7 +8068,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8100,7 +8112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8141,7 +8153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8176,7 +8188,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8202,7 +8214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8240,7 +8252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8281,7 +8293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8322,7 +8334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8369,7 +8381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8410,7 +8422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8451,7 +8463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8492,7 +8504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8530,7 +8542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8565,7 +8577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8609,7 +8621,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8650,7 +8662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8694,7 +8706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8741,7 +8753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8779,7 +8791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8817,7 +8829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8846,7 +8858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8875,7 +8887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8916,7 +8928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8957,7 +8969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9004,7 +9016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9048,7 +9060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9095,7 +9107,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9136,7 +9148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9165,7 +9177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9200,7 +9212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9235,7 +9247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9273,7 +9285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9311,7 +9323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9340,7 +9352,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9381,7 +9393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9413,7 +9425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9454,7 +9466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9504,7 +9516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9542,7 +9554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9577,7 +9589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9621,7 +9633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9665,7 +9677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9703,7 +9715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9738,7 +9750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9814,7 +9826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9855,7 +9867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9884,7 +9896,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9934,7 +9946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9981,7 +9993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -10022,7 +10034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -10060,7 +10072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10101,7 +10113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -10145,7 +10157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10186,7 +10198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10224,7 +10236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10262,7 +10274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10294,7 +10306,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10326,7 +10338,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10367,7 +10379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10408,7 +10420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10452,7 +10464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10496,7 +10508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10522,7 +10534,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10563,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10601,7 +10613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10636,7 +10648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10668,7 +10680,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10703,7 +10715,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10741,7 +10753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10782,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10817,7 +10829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10852,7 +10864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10887,7 +10899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10934,7 +10946,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10966,7 +10978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -11004,7 +11016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -11048,7 +11060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -11092,7 +11104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -11136,7 +11148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -11162,7 +11174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -11188,7 +11200,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -11223,7 +11235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -11270,7 +11282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -11296,7 +11308,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -11343,7 +11355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -11390,7 +11402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -11437,7 +11449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -11481,7 +11493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -11528,7 +11540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11572,7 +11584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -11619,7 +11631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11660,7 +11672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11704,7 +11716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11739,7 +11751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11765,7 +11777,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11806,7 +11818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11847,7 +11859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11891,7 +11903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11935,7 +11947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11979,7 +11991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -12023,7 +12035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -12061,7 +12073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -12108,7 +12120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -12149,7 +12161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -12187,7 +12199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -12231,7 +12243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -12272,7 +12284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -12316,7 +12328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -12360,7 +12372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -12401,7 +12413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -12448,7 +12460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -12486,7 +12498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -12527,7 +12539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -12565,7 +12577,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -12600,7 +12612,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -12635,7 +12647,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -12676,7 +12688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -12717,7 +12729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -12758,7 +12770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -12805,7 +12817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -12852,7 +12864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -12884,7 +12896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -12919,7 +12931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12960,7 +12972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12998,7 +13010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -13033,7 +13045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -13103,7 +13115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -13153,7 +13165,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -13197,7 +13209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -13247,7 +13259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -13285,7 +13297,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -13329,7 +13341,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -13379,7 +13391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -13426,7 +13438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -13470,7 +13482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -13505,7 +13517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -13552,7 +13564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -13587,7 +13599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -13622,7 +13634,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -13648,7 +13660,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -13680,7 +13692,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -13727,7 +13739,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -13771,7 +13783,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -13815,7 +13827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -13865,7 +13877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -13909,7 +13921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -13956,7 +13968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -14006,7 +14018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14056,7 +14068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -14097,7 +14109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -14135,7 +14147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -14176,7 +14188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14252,7 +14264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -14296,7 +14308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -14343,7 +14355,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14381,7 +14393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -14425,7 +14437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -14475,7 +14487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -14522,7 +14534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -14572,7 +14584,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="310" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -14604,7 +14616,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="311" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -14651,7 +14663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -14686,7 +14698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -14727,7 +14739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -14771,7 +14783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="315" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -14812,7 +14824,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="316" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -14859,7 +14871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -14903,7 +14915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -14938,7 +14950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -14985,7 +14997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="320" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -15032,7 +15044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15073,7 +15085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>322</v>
       </c>
@@ -15123,7 +15135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>323</v>
       </c>
@@ -15173,7 +15185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>324</v>
       </c>
@@ -15208,7 +15220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>325</v>
       </c>
@@ -15246,7 +15258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>326</v>
       </c>
@@ -15287,7 +15299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>327</v>
       </c>
@@ -15325,7 +15337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>328</v>
       </c>
@@ -15372,7 +15384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="329" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>329</v>
       </c>
@@ -15419,7 +15431,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>330</v>
       </c>
@@ -15460,7 +15472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>331</v>
       </c>
@@ -15504,7 +15516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>332</v>
       </c>
@@ -15548,7 +15560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="333" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>333</v>
       </c>
@@ -15586,7 +15598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>334</v>
       </c>
@@ -15627,7 +15639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>336</v>
       </c>
@@ -15665,7 +15677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>338</v>
       </c>
@@ -15712,7 +15724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>339</v>
       </c>
@@ -15759,7 +15771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>340</v>
       </c>
@@ -15806,7 +15818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>341</v>
       </c>
@@ -15853,7 +15865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>342</v>
       </c>
@@ -15897,7 +15909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>343</v>
       </c>
@@ -15944,7 +15956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>344</v>
       </c>
@@ -15985,7 +15997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>345</v>
       </c>
@@ -16026,7 +16038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>346</v>
       </c>
@@ -16058,7 +16070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>347</v>
       </c>
@@ -16090,7 +16102,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>348</v>
       </c>
@@ -16122,7 +16134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>349</v>
       </c>
@@ -16154,7 +16166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>350</v>
       </c>
@@ -16189,7 +16201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>351</v>
       </c>
@@ -16221,7 +16233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>352</v>
       </c>
@@ -16253,7 +16265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>353</v>
       </c>
@@ -16294,7 +16306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>354</v>
       </c>
@@ -16335,7 +16347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>355</v>
       </c>
@@ -16370,7 +16382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="354" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>356</v>
       </c>
@@ -16414,7 +16426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>357</v>
       </c>
@@ -16458,7 +16470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>358</v>
       </c>
@@ -16505,7 +16517,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="357" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>359</v>
       </c>
@@ -16555,7 +16567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="358" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>360</v>
       </c>
@@ -16602,7 +16614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="359" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>361</v>
       </c>
@@ -16649,7 +16661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="360" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>362</v>
       </c>
@@ -16696,7 +16708,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="361" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>363</v>
       </c>
@@ -16746,7 +16758,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="362" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>364</v>
       </c>
@@ -16778,7 +16790,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="363" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>365</v>
       </c>
@@ -16810,7 +16822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>366</v>
       </c>
@@ -16860,7 +16872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>367</v>
       </c>
@@ -16907,7 +16919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>368</v>
       </c>
@@ -16951,7 +16963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>369</v>
       </c>
@@ -16998,7 +17010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>370</v>
       </c>
@@ -17036,7 +17048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>371</v>
       </c>
@@ -17080,7 +17092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>372</v>
       </c>
@@ -17118,7 +17130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>373</v>
       </c>
@@ -17162,7 +17174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>374</v>
       </c>
@@ -17209,7 +17221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>375</v>
       </c>
@@ -17244,7 +17256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>376</v>
       </c>
@@ -17282,7 +17294,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="375" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>377</v>
       </c>
@@ -17320,7 +17332,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="376" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>378</v>
       </c>
@@ -17349,7 +17361,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="377" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>379</v>
       </c>
@@ -17396,7 +17408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>380</v>
       </c>
@@ -17443,7 +17455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>381</v>
       </c>
@@ -17484,7 +17496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>382</v>
       </c>
@@ -17534,7 +17546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>383</v>
       </c>
@@ -17566,7 +17578,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="382" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>384</v>
       </c>
@@ -17607,7 +17619,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="383" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>385</v>
       </c>
@@ -17648,7 +17660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>386</v>
       </c>
@@ -17695,7 +17707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>387</v>
       </c>
@@ -17742,7 +17754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="386" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>388</v>
       </c>
@@ -17789,7 +17801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>389</v>
       </c>
@@ -17839,7 +17851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>390</v>
       </c>
@@ -17889,7 +17901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="389" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>391</v>
       </c>
@@ -17930,7 +17942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>392</v>
       </c>
@@ -17980,7 +17992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>393</v>
       </c>
@@ -18024,7 +18036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>394</v>
       </c>
@@ -18068,7 +18080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>395</v>
       </c>
@@ -18106,7 +18118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>396</v>
       </c>
@@ -18141,7 +18153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>397</v>
       </c>
@@ -18185,7 +18197,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="396" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>398</v>
       </c>
@@ -18229,7 +18241,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="397" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>399</v>
       </c>
@@ -18276,7 +18288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>400</v>
       </c>
@@ -18311,7 +18323,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="399" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>401</v>
       </c>
@@ -18352,7 +18364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>402</v>
       </c>
@@ -18378,7 +18390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>403</v>
       </c>
@@ -18422,7 +18434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>404</v>
       </c>
@@ -18469,7 +18481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>405</v>
       </c>
@@ -18510,7 +18522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>406</v>
       </c>
@@ -18551,7 +18563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>407</v>
       </c>
@@ -18598,7 +18610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="406" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>408</v>
       </c>
@@ -18639,7 +18651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="407" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>409</v>
       </c>
@@ -18677,7 +18689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="408" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>410</v>
       </c>
@@ -18712,7 +18724,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="409" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>411</v>
       </c>
@@ -18747,7 +18759,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="410" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>412</v>
       </c>
@@ -18791,7 +18803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>413</v>
       </c>
@@ -18823,7 +18835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="412" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>414</v>
       </c>
@@ -18864,7 +18876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>415</v>
       </c>
@@ -18902,7 +18914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>416</v>
       </c>
@@ -18943,7 +18955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>417</v>
       </c>
@@ -18984,7 +18996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>418</v>
       </c>
@@ -19025,7 +19037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>419</v>
       </c>
@@ -19072,7 +19084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>420</v>
       </c>
@@ -19122,7 +19134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>421</v>
       </c>
@@ -19172,7 +19184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>422</v>
       </c>
@@ -19213,7 +19225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>423</v>
       </c>
@@ -19257,7 +19269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>424</v>
       </c>
@@ -19295,7 +19307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>425</v>
       </c>
@@ -19333,7 +19345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>426</v>
       </c>
@@ -19380,7 +19392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>427</v>
       </c>
@@ -19424,7 +19436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>428</v>
       </c>
@@ -19468,7 +19480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>429</v>
       </c>
@@ -19512,7 +19524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>430</v>
       </c>
@@ -19559,7 +19571,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="429" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>431</v>
       </c>
@@ -19603,7 +19615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>432</v>
       </c>
@@ -19644,7 +19656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>433</v>
       </c>
@@ -19691,7 +19703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>434</v>
       </c>
@@ -19729,7 +19741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>435</v>
       </c>
@@ -19773,7 +19785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>436</v>
       </c>
@@ -19808,7 +19820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="435" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>437</v>
       </c>
@@ -19843,7 +19855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>438</v>
       </c>
@@ -19881,7 +19893,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="437" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>439</v>
       </c>
@@ -19916,7 +19928,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="438" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>440</v>
       </c>
@@ -19945,7 +19957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="439" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>441</v>
       </c>
@@ -19977,7 +19989,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="440" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>442</v>
       </c>
@@ -20009,7 +20021,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="441" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>443</v>
       </c>
@@ -20041,7 +20053,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="442" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>444</v>
       </c>
@@ -20088,7 +20100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>445</v>
       </c>
@@ -20126,7 +20138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>446</v>
       </c>
@@ -20164,7 +20176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>447</v>
       </c>
@@ -20205,7 +20217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>449</v>
       </c>
@@ -20234,7 +20246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="447" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>450</v>
       </c>
@@ -20269,7 +20281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>451</v>
       </c>
@@ -20307,7 +20319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>452</v>
       </c>
@@ -20345,7 +20357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>453</v>
       </c>
@@ -20392,7 +20404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>454</v>
       </c>
@@ -20442,7 +20454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>455</v>
       </c>
@@ -20483,7 +20495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>456</v>
       </c>
@@ -20530,7 +20542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>457</v>
       </c>
@@ -20565,7 +20577,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="455" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>458</v>
       </c>
@@ -20606,7 +20618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="456" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>459</v>
       </c>
@@ -20650,7 +20662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>460</v>
       </c>
@@ -20694,7 +20706,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="458" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>461</v>
       </c>
@@ -20732,7 +20744,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="459" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>463</v>
       </c>
@@ -20779,7 +20791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>464</v>
       </c>
@@ -20826,7 +20838,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="461" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>465</v>
       </c>
@@ -20873,7 +20885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="462" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>466</v>
       </c>
@@ -20920,7 +20932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>467</v>
       </c>
@@ -20964,7 +20976,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="464" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>468</v>
       </c>
@@ -21008,7 +21020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="465" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>469</v>
       </c>
@@ -21049,7 +21061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>470</v>
       </c>
@@ -21099,7 +21111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="467" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>471</v>
       </c>
@@ -21137,7 +21149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>472</v>
       </c>
@@ -21172,7 +21184,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="469" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>473</v>
       </c>
@@ -21216,7 +21228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>474</v>
       </c>
@@ -21263,7 +21275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>475</v>
       </c>
@@ -21310,7 +21322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>476</v>
       </c>
@@ -21357,7 +21369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="473" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>477</v>
       </c>
@@ -21404,7 +21416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>478</v>
       </c>
@@ -21460,7 +21472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>479</v>
       </c>
@@ -21507,7 +21519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>480</v>
       </c>
@@ -21542,7 +21554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="477" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>481</v>
       </c>
@@ -21586,7 +21598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>482</v>
       </c>
@@ -21621,7 +21633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="479" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>483</v>
       </c>
@@ -21659,7 +21671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="480" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>484</v>
       </c>
@@ -21706,7 +21718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>485</v>
       </c>
@@ -21741,7 +21753,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="482" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>486</v>
       </c>
@@ -21782,7 +21794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>487</v>
       </c>
@@ -21829,7 +21841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>488</v>
       </c>
@@ -21864,7 +21876,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="485" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>489</v>
       </c>
@@ -21905,7 +21917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>490</v>
       </c>
@@ -21949,7 +21961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>491</v>
       </c>
@@ -21996,7 +22008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="488" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>492</v>
       </c>
@@ -22037,7 +22049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="489" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>493</v>
       </c>
@@ -22084,7 +22096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>494</v>
       </c>
@@ -22113,7 +22125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="491" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>495</v>
       </c>
@@ -22145,7 +22157,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="492" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>496</v>
       </c>
@@ -22171,7 +22183,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="493" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>497</v>
       </c>
@@ -22197,7 +22209,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="494" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>498</v>
       </c>
@@ -22223,7 +22235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="495" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>499</v>
       </c>
@@ -22252,7 +22264,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="496" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>500</v>
       </c>
@@ -22281,7 +22293,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="497" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>501</v>
       </c>
@@ -22310,7 +22322,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="498" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>502</v>
       </c>
@@ -22360,7 +22372,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="499" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>503</v>
       </c>
@@ -22407,7 +22419,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="500" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>504</v>
       </c>
@@ -22483,7 +22495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>506</v>
       </c>
@@ -22524,7 +22536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>507</v>
       </c>
@@ -22568,7 +22580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="504" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>508</v>
       </c>
@@ -22606,7 +22618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="505" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>509</v>
       </c>
@@ -22656,7 +22668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>510</v>
       </c>
@@ -22691,7 +22703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>511</v>
       </c>
@@ -22720,7 +22732,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="508" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>512</v>
       </c>
@@ -22752,7 +22764,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="509" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>513</v>
       </c>
@@ -22778,7 +22790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>514</v>
       </c>
@@ -22813,7 +22825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="511" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>515</v>
       </c>
@@ -22848,7 +22860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>516</v>
       </c>
@@ -22889,7 +22901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>517</v>
       </c>
@@ -22927,7 +22939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>518</v>
       </c>
@@ -22971,7 +22983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>519</v>
       </c>
@@ -23009,7 +23021,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="516" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>520</v>
       </c>
@@ -23053,7 +23065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="517" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>521</v>
       </c>
@@ -23097,7 +23109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>522</v>
       </c>
@@ -23138,7 +23150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>523</v>
       </c>
@@ -23182,7 +23194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>524</v>
       </c>
@@ -23232,7 +23244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>525</v>
       </c>
@@ -23267,7 +23279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="522" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>526</v>
       </c>
@@ -23305,7 +23317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>527</v>
       </c>
@@ -23343,7 +23355,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="524" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>528</v>
       </c>
@@ -23390,7 +23402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="525" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>529</v>
       </c>
@@ -23440,7 +23452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="526" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>530</v>
       </c>
@@ -23487,7 +23499,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="527" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>531</v>
       </c>
@@ -23516,7 +23528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>532</v>
       </c>
@@ -23542,7 +23554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>533</v>
       </c>
@@ -23589,7 +23601,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="530" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>534</v>
       </c>
@@ -23633,7 +23645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>535</v>
       </c>
@@ -23674,7 +23686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="532" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>536</v>
       </c>
@@ -23721,7 +23733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>537</v>
       </c>
@@ -23765,7 +23777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>538</v>
       </c>
@@ -23809,7 +23821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>539</v>
       </c>
@@ -23853,7 +23865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="536" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>540</v>
       </c>
@@ -23894,7 +23906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>541</v>
       </c>
@@ -23941,7 +23953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>542</v>
       </c>
@@ -23979,7 +23991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>543</v>
       </c>
@@ -24026,7 +24038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>544</v>
       </c>
@@ -24076,7 +24088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="541" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>545</v>
       </c>
@@ -24123,7 +24135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="542" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>546</v>
       </c>
@@ -24158,7 +24170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>549</v>
       </c>
@@ -24199,7 +24211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>550</v>
       </c>
@@ -24237,7 +24249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>551</v>
       </c>
@@ -24275,7 +24287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>552</v>
       </c>
@@ -24319,7 +24331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="547" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>553</v>
       </c>
@@ -24366,7 +24378,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="548" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>554</v>
       </c>
@@ -24401,7 +24413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="549" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>555</v>
       </c>
@@ -24448,7 +24460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="550" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>556</v>
       </c>
@@ -24495,7 +24507,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="551" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>557</v>
       </c>
@@ -24539,7 +24551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>558</v>
       </c>
@@ -24583,7 +24595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>559</v>
       </c>
@@ -24630,7 +24642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="554" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>560</v>
       </c>
@@ -24668,7 +24680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>561</v>
       </c>
@@ -24715,7 +24727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>4097</v>
       </c>
@@ -24750,7 +24762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>4098</v>
       </c>
@@ -24776,7 +24788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>4099</v>
       </c>
@@ -24817,7 +24829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="559" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>4100</v>
       </c>
@@ -24858,7 +24870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="560" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>4101</v>
       </c>
@@ -24905,7 +24917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="561" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>4102</v>
       </c>
@@ -24946,7 +24958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="562" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>4103</v>
       </c>
@@ -24975,7 +24987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>16384</v>
       </c>
@@ -24989,7 +25001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>16389</v>
       </c>
@@ -25003,7 +25015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>16390</v>
       </c>
@@ -25017,7 +25029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>16391</v>
       </c>
@@ -25031,7 +25043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>16392</v>
       </c>
@@ -25045,7 +25057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>16393</v>
       </c>
@@ -25059,7 +25071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>16394</v>
       </c>
@@ -25073,7 +25085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>16396</v>
       </c>
@@ -25087,7 +25099,7 @@
         <v>16394</v>
       </c>
     </row>
-    <row r="571" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>16401</v>
       </c>
@@ -25101,7 +25113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>16402</v>
       </c>
@@ -25115,7 +25127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>16404</v>
       </c>
@@ -25129,7 +25141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>16415</v>
       </c>
@@ -25143,7 +25155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>16427</v>
       </c>
@@ -25157,7 +25169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>16438</v>
       </c>
@@ -25171,7 +25183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>16439</v>
       </c>
@@ -25185,7 +25197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>16440</v>
       </c>
@@ -25199,7 +25211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>16445</v>
       </c>
@@ -25213,7 +25225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>16446</v>
       </c>
@@ -25227,7 +25239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>16461</v>
       </c>
@@ -25241,7 +25253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>16469</v>
       </c>
@@ -25255,7 +25267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>16470</v>
       </c>
@@ -25271,6 +25283,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:AE583" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="AA-gun"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AE583">
       <sortCondition ref="A2:A583"/>
     </sortState>

--- a/doc/equip/Equip.xlsx
+++ b/doc/equip/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\equip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5435377-A876-4A3A-A6BC-118F08853F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9060A9A2-07CB-40FD-8F3C-982DA9BB4B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2528,10 +2528,10 @@
   <dimension ref="A1:AE583"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
